--- a/src/test/resources/com/xpfriend/fixture/cast/temp/DatabaseUpdaterTest.xlsx
+++ b/src/test/resources/com/xpfriend/fixture/cast/temp/DatabaseUpdaterTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="148">
   <si>
     <t>A. テストケース</t>
     <phoneticPr fontId="3"/>
@@ -719,6 +719,48 @@
   </si>
   <si>
     <t>com/xpfriend/fixture/cast/temp/DatabaseUpdaterTest.txt</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル名行に記載されている列名は無視される_Setup</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>レツメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ムシ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名行に記載されている列名は無視される</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>レツメイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ムシ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -729,7 +771,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,7 +932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -917,6 +959,7 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1291,13 +1334,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B2:AG250"/>
+  <dimension ref="B2:AG283"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
     <col min="1" max="2" width="2.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="2.77734375" style="2" customWidth="1"/>
@@ -1335,49 +1378,49 @@
     <col min="257" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" s="1" customFormat="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32">
       <c r="C4" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" s="3" customFormat="1">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32">
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32">
       <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32">
       <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" s="3" customFormat="1">
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32">
       <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32">
       <c r="D14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1509,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32">
       <c r="D15" s="7" t="s">
         <v>33</v>
       </c>
@@ -1499,7 +1542,7 @@
       <c r="AE15" s="7"/>
       <c r="AF15" s="7"/>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32">
       <c r="D16" s="7" t="s">
         <v>34</v>
       </c>
@@ -1588,18 +1631,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:32" s="3" customFormat="1">
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:32">
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:32">
       <c r="D21" s="6" t="s">
         <v>8</v>
       </c>
@@ -1688,7 +1731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:32">
       <c r="D22" s="7" t="s">
         <v>33</v>
       </c>
@@ -1721,7 +1764,7 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:32">
       <c r="D23" s="7" t="s">
         <v>34</v>
       </c>
@@ -1810,49 +1853,49 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:32" s="1" customFormat="1">
       <c r="B26" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:32">
       <c r="C28" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="2:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:32" s="3" customFormat="1">
       <c r="B30" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:32">
       <c r="C31" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:32">
       <c r="D32" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:33">
       <c r="D33" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:33" s="3" customFormat="1">
       <c r="B36" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:33">
       <c r="C37" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:33">
       <c r="D38" s="6" t="s">
         <v>64</v>
       </c>
@@ -1910,7 +1953,7 @@
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:33">
       <c r="D39" s="7" t="s">
         <v>33</v>
       </c>
@@ -1944,7 +1987,7 @@
       <c r="AF39" s="7"/>
       <c r="AG39" s="7"/>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:33">
       <c r="D40" s="7" t="s">
         <v>34</v>
       </c>
@@ -2002,18 +2045,18 @@
       <c r="AF40" s="7"/>
       <c r="AG40" s="7"/>
     </row>
-    <row r="43" spans="2:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:33" s="3" customFormat="1">
       <c r="B43" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:33">
       <c r="C44" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:33">
       <c r="D45" s="6" t="s">
         <v>64</v>
       </c>
@@ -2071,7 +2114,7 @@
       <c r="AF45" s="6"/>
       <c r="AG45" s="6"/>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:33">
       <c r="D46" s="7" t="s">
         <v>33</v>
       </c>
@@ -2105,7 +2148,7 @@
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:33">
       <c r="D47" s="7" t="s">
         <v>34</v>
       </c>
@@ -2163,49 +2206,49 @@
       <c r="AF47" s="7"/>
       <c r="AG47" s="7"/>
     </row>
-    <row r="52" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" s="1" customFormat="1">
       <c r="B52" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5">
       <c r="C54" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" s="3" customFormat="1">
       <c r="B56" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5">
       <c r="C57" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5">
       <c r="D58" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5">
       <c r="D59" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" s="3" customFormat="1">
       <c r="B62" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5">
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5">
       <c r="D64" s="6" t="s">
         <v>64</v>
       </c>
@@ -2213,7 +2256,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5">
       <c r="D65" s="7" t="s">
         <v>33</v>
       </c>
@@ -2221,7 +2264,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5">
       <c r="D66" s="7" t="s">
         <v>95</v>
       </c>
@@ -2229,7 +2272,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5">
       <c r="D67" s="7" t="s">
         <v>63</v>
       </c>
@@ -2237,18 +2280,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" s="3" customFormat="1">
       <c r="B70" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5">
       <c r="C71" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D71" s="5"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5">
       <c r="D72" s="6" t="s">
         <v>91</v>
       </c>
@@ -2256,7 +2299,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5">
       <c r="D73" s="7" t="s">
         <v>33</v>
       </c>
@@ -2264,7 +2307,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5">
       <c r="D74" s="7" t="s">
         <v>85</v>
       </c>
@@ -2272,7 +2315,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5">
       <c r="D75" s="7" t="s">
         <v>63</v>
       </c>
@@ -2280,49 +2323,49 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" s="1" customFormat="1">
       <c r="B78" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5">
       <c r="C80" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" s="3" customFormat="1">
       <c r="B82" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5">
       <c r="C83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5">
       <c r="D84" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5">
       <c r="D85" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" s="3" customFormat="1">
       <c r="B88" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5">
       <c r="C89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5">
       <c r="D90" s="6" t="s">
         <v>8</v>
       </c>
@@ -2330,7 +2373,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5">
       <c r="D91" s="7" t="s">
         <v>33</v>
       </c>
@@ -2338,7 +2381,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5">
       <c r="D92" s="7" t="s">
         <v>34</v>
       </c>
@@ -2346,7 +2389,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5">
       <c r="D93" s="7" t="s">
         <v>101</v>
       </c>
@@ -2354,18 +2397,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" s="3" customFormat="1">
       <c r="B96" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5">
       <c r="C97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5">
       <c r="D98" s="6" t="s">
         <v>62</v>
       </c>
@@ -2373,7 +2416,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5">
       <c r="D99" s="7" t="s">
         <v>33</v>
       </c>
@@ -2381,7 +2424,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5">
       <c r="D100" s="7" t="s">
         <v>85</v>
       </c>
@@ -2389,7 +2432,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5">
       <c r="D101" s="7" t="s">
         <v>63</v>
       </c>
@@ -2397,230 +2440,230 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" s="1" customFormat="1">
       <c r="B104" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5">
       <c r="C106" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" s="3" customFormat="1">
       <c r="B108" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5">
       <c r="C109" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5">
       <c r="D110" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5">
       <c r="D111" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:4" s="1" customFormat="1">
       <c r="B113" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:4">
       <c r="C115" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="117" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:4" s="3" customFormat="1">
       <c r="B117" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:4">
       <c r="C118" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:4">
       <c r="D119" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:4">
       <c r="D120" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:4" s="1" customFormat="1">
       <c r="B122" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:4">
       <c r="C124" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:4" s="3" customFormat="1">
       <c r="B126" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:4">
       <c r="C127" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:4">
       <c r="D128" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:4">
       <c r="D129" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:4" s="3" customFormat="1">
       <c r="B131" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:4">
       <c r="C132" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:4">
       <c r="D133" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:4">
       <c r="D134" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:4">
       <c r="D135" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:4" s="1" customFormat="1">
       <c r="B137" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:4">
       <c r="C139" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:4" s="3" customFormat="1">
       <c r="B141" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:4">
       <c r="C142" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:4">
       <c r="D143" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:4">
       <c r="D144" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:4" s="1" customFormat="1">
       <c r="B146" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:4">
       <c r="C148" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="150" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:4" s="3" customFormat="1">
       <c r="B150" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:4">
       <c r="C151" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:4">
       <c r="D152" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:4">
       <c r="D153" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="156" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:4" s="1" customFormat="1">
       <c r="B156" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:4">
       <c r="C158" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="2:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:4" s="3" customFormat="1">
       <c r="B160" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:5">
       <c r="C161" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5">
       <c r="D162" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5">
       <c r="D163" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" s="3" customFormat="1">
       <c r="B165" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5">
       <c r="C166" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5">
       <c r="D167" s="6" t="s">
         <v>8</v>
       </c>
@@ -2628,7 +2671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:5">
       <c r="D168" s="7" t="s">
         <v>33</v>
       </c>
@@ -2636,7 +2679,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5">
       <c r="D169" s="7" t="s">
         <v>122</v>
       </c>
@@ -2644,7 +2687,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5">
       <c r="D170" s="7" t="s">
         <v>34</v>
       </c>
@@ -2652,7 +2695,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5">
       <c r="D171" s="7" t="s">
         <v>125</v>
       </c>
@@ -2660,7 +2703,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5">
       <c r="D172" s="7" t="s">
         <v>63</v>
       </c>
@@ -2668,7 +2711,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:5">
       <c r="D173" s="7" t="s">
         <v>126</v>
       </c>
@@ -2676,59 +2719,59 @@
         <v>128</v>
       </c>
     </row>
-    <row r="175" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:5" s="1" customFormat="1">
       <c r="B175" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5">
       <c r="C177" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="179" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:5" s="3" customFormat="1">
       <c r="B179" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5">
       <c r="C180" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5">
       <c r="D181" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5">
       <c r="D182" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:5">
       <c r="D183" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5">
       <c r="D184" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="186" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:5" s="3" customFormat="1">
       <c r="B186" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5">
       <c r="C187" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5">
       <c r="D188" s="6" t="s">
         <v>62</v>
       </c>
@@ -2736,7 +2779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5">
       <c r="C189" s="2" t="s">
         <v>129</v>
       </c>
@@ -2747,7 +2790,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:5">
       <c r="D190" s="7" t="s">
         <v>122</v>
       </c>
@@ -2755,7 +2798,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5">
       <c r="C191" s="2" t="s">
         <v>129</v>
       </c>
@@ -2766,7 +2809,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5">
       <c r="D192" s="7" t="s">
         <v>125</v>
       </c>
@@ -2774,7 +2817,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6">
       <c r="C193" s="2" t="s">
         <v>129</v>
       </c>
@@ -2785,7 +2828,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6">
       <c r="D194" s="7" t="s">
         <v>126</v>
       </c>
@@ -2793,49 +2836,49 @@
         <v>128</v>
       </c>
     </row>
-    <row r="196" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" s="1" customFormat="1">
       <c r="B196" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6">
       <c r="C198" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="200" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:6" s="3" customFormat="1">
       <c r="B200" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:6">
       <c r="C201" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:6">
       <c r="D202" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:6">
       <c r="D203" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:6" s="3" customFormat="1">
       <c r="B205" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:6">
       <c r="C206" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:6">
       <c r="D207" s="6" t="s">
         <v>8</v>
       </c>
@@ -2846,7 +2889,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:6">
       <c r="D208" s="7" t="s">
         <v>33</v>
       </c>
@@ -2857,7 +2900,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6">
       <c r="D209" s="7" t="s">
         <v>34</v>
       </c>
@@ -2868,7 +2911,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6">
       <c r="D210" s="7" t="s">
         <v>63</v>
       </c>
@@ -2879,28 +2922,28 @@
         <v>133</v>
       </c>
     </row>
-    <row r="212" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" s="1" customFormat="1">
       <c r="B212" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6">
       <c r="C214" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="216" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:6" s="3" customFormat="1">
       <c r="B216" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:6">
       <c r="C217" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:6">
       <c r="D218" s="6" t="s">
         <v>12</v>
       </c>
@@ -2908,7 +2951,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:6">
       <c r="D219" s="7" t="s">
         <v>117</v>
       </c>
@@ -2916,23 +2959,23 @@
         <v>133</v>
       </c>
     </row>
-    <row r="221" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:6" s="3" customFormat="1">
       <c r="B221" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:6">
       <c r="C222" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:6">
       <c r="D223" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:6">
       <c r="C224" s="2" t="s">
         <v>129</v>
       </c>
@@ -2940,59 +2983,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5">
       <c r="D225" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5">
       <c r="D226" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="229" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" s="1" customFormat="1">
       <c r="B229" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5">
       <c r="C231" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="233" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" s="3" customFormat="1">
       <c r="B233" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:5">
       <c r="C234" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5">
       <c r="D235" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5">
       <c r="D236" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" s="3" customFormat="1">
       <c r="B238" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:5">
       <c r="C239" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:5">
       <c r="D240" s="6" t="s">
         <v>8</v>
       </c>
@@ -3000,7 +3043,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:5">
       <c r="D241" s="7" t="s">
         <v>122</v>
       </c>
@@ -3008,7 +3051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:5">
       <c r="D242" s="7" t="s">
         <v>125</v>
       </c>
@@ -3016,7 +3059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5">
       <c r="D243" s="7" t="s">
         <v>126</v>
       </c>
@@ -3024,18 +3067,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="245" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:5" s="3" customFormat="1">
       <c r="B245" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5">
       <c r="C246" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5">
       <c r="D247" s="6" t="s">
         <v>62</v>
       </c>
@@ -3043,7 +3086,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:5">
       <c r="D248" s="7" t="s">
         <v>122</v>
       </c>
@@ -3051,7 +3094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:5">
       <c r="D249" s="7" t="s">
         <v>125</v>
       </c>
@@ -3059,12 +3102,154 @@
         <v>54</v>
       </c>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5">
       <c r="D250" s="7" t="s">
         <v>126</v>
       </c>
       <c r="E250" s="7" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" s="1" customFormat="1">
+      <c r="B252" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" s="10" customFormat="1"/>
+    <row r="254" spans="2:5" s="10" customFormat="1">
+      <c r="C254" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" s="10" customFormat="1"/>
+    <row r="256" spans="2:5" s="3" customFormat="1">
+      <c r="B256" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" s="10" customFormat="1">
+      <c r="C257" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D257" s="5"/>
+    </row>
+    <row r="258" spans="2:5" s="10" customFormat="1">
+      <c r="D258" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" s="10" customFormat="1">
+      <c r="D259" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" s="10" customFormat="1"/>
+    <row r="261" spans="2:5" s="3" customFormat="1">
+      <c r="B261" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" s="10" customFormat="1">
+      <c r="C262" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" s="5"/>
+    </row>
+    <row r="263" spans="2:5" s="10" customFormat="1">
+      <c r="D263" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" s="10" customFormat="1">
+      <c r="D264" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E264" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" s="10" customFormat="1"/>
+    <row r="266" spans="2:5" s="1" customFormat="1">
+      <c r="B266" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" s="10" customFormat="1"/>
+    <row r="268" spans="2:5" s="10" customFormat="1">
+      <c r="C268" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" s="10" customFormat="1"/>
+    <row r="270" spans="2:5" s="3" customFormat="1">
+      <c r="B270" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" s="10" customFormat="1">
+      <c r="C271" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" s="5"/>
+      <c r="E271" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" s="10" customFormat="1">
+      <c r="D272" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" s="10" customFormat="1">
+      <c r="D273" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" s="10" customFormat="1"/>
+    <row r="275" spans="2:4" s="3" customFormat="1">
+      <c r="B275" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" s="10" customFormat="1">
+      <c r="C276" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D276" s="5"/>
+    </row>
+    <row r="277" spans="2:4" s="10" customFormat="1">
+      <c r="D277" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" s="10" customFormat="1">
+      <c r="D278" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" s="10" customFormat="1"/>
+    <row r="280" spans="2:4" s="3" customFormat="1">
+      <c r="B280" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" s="10" customFormat="1">
+      <c r="C281" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" s="5"/>
+    </row>
+    <row r="282" spans="2:4" s="10" customFormat="1">
+      <c r="D282" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" s="10" customFormat="1">
+      <c r="D283" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
